--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816110.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF75C1D6-E0E2-4454-8348-3019471C8AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6D47C9-5CE9-400C-BDBF-C7A46CCD95F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T060211.475" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T062934.538" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Do Ty</t>
   </si>
@@ -176,6 +176,54 @@
   </si>
   <si>
     <t>Account Number</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>PT.ASURANSI SINAR MAS</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>General Ledger</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Voucher Entry</t>
+  </si>
+  <si>
+    <t>12.400.0000.12487 - 91319</t>
+  </si>
+  <si>
+    <t>ALFRIEDA</t>
+  </si>
+  <si>
+    <t>JDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>CUSTOME BOND PO#23001186 CV. C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -671,8 +719,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1193,23 +1243,202 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>24001656</v>
+      </c>
+      <c r="D2">
+        <v>1201</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45342</v>
+      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2284</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2284</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="N2" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2">
+        <v>15803</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2">
+        <v>2104107</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2">
+        <v>55326825</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2">
+        <v>1201</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX2">
+        <v>24001219</v>
+      </c>
+      <c r="AY2">
+        <v>816110</v>
+      </c>
+      <c r="AZ2">
+        <v>1201.81611</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2284</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2284</v>
+      </c>
+      <c r="L3" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="AG3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2284</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2284</v>
+      </c>
+      <c r="L4" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="N4" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="AG4">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2284</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2284</v>
+      </c>
+      <c r="L5" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="N5" s="2">
+        <v>36093896</v>
+      </c>
+      <c r="AG5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.816110.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6D47C9-5CE9-400C-BDBF-C7A46CCD95F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91CC0C8-978C-4F1E-83C1-6D56C8BE2D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T062934.538" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063050.415" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
